--- a/docs/ferry_workers_by_county.xlsx
+++ b/docs/ferry_workers_by_county.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,6 +398,16 @@
           <t>ACS_Geography</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>concept</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -434,6 +444,16 @@
           <t>county</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Estimate!!Total:!!Public transportation (excluding taxicab):!!Ferryboat</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SEX OF WORKERS BY MEANS OF TRANSPORTATION TO WORK</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -470,6 +490,16 @@
           <t>county</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Estimate!!Total:!!Public transportation (excluding taxicab):!!Ferryboat</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>SEX OF WORKERS BY MEANS OF TRANSPORTATION TO WORK</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -506,6 +536,16 @@
           <t>county</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Estimate!!Total:!!Public transportation (excluding taxicab):!!Ferryboat</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SEX OF WORKERS BY MEANS OF TRANSPORTATION TO WORK</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -540,6 +580,16 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>county</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Estimate!!Total:!!Public transportation (excluding taxicab):!!Ferryboat</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SEX OF WORKERS BY MEANS OF TRANSPORTATION TO WORK</t>
         </is>
       </c>
     </row>
